--- a/periodicRecruitment_om2/WMU42_StonesSheep_periodicRecruitment.xlsx
+++ b/periodicRecruitment_om2/WMU42_StonesSheep_periodicRecruitment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" state="visible" r:id="rId2"/>
@@ -627,7 +627,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="124">
   <si>
     <t xml:space="preserve">Slot</t>
   </si>
@@ -641,7 +641,7 @@
     <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t xml:space="preserve">StonesSheep_WMU42</t>
+    <t xml:space="preserve">StonesSheep_WMU42_om2</t>
   </si>
   <si>
     <t xml:space="preserve">maxage</t>
@@ -980,6 +980,9 @@
   </si>
   <si>
     <t xml:space="preserve">SizeLimSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StonesSheep_WMU42</t>
   </si>
   <si>
     <t xml:space="preserve">Agency</t>
@@ -1244,8 +1247,8 @@
   </sheetPr>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="B3:C8 B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1715,7 +1718,7 @@
         <v>37</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>36</v>
@@ -1785,7 +1788,7 @@
   <dimension ref="A1:AQ28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="B3:C8 C10"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2428,7 +2431,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="1" sqref="B3:C8 E5"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2761,8 +2764,8 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3:C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2870,7 +2873,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="1" sqref="B3:C8 B33"/>
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2889,30 +2892,30 @@
         <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>57.824</v>
@@ -2920,7 +2923,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-124.228</v>
@@ -2928,7 +2931,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>200</v>
@@ -2936,7 +2939,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>50</v>
@@ -2944,7 +2947,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>4</v>
@@ -2952,7 +2955,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.5</v>
@@ -2960,7 +2963,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.8</v>
@@ -2968,7 +2971,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
